--- a/raw_data/20200818_saline/20200818_Sensor1_Test_93.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_93.xlsx
@@ -1,1157 +1,1573 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A20B3-05E4-4983-9717-602F7E9CCED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>82989.019263</v>
+        <v>82989.019262999995</v>
       </c>
       <c r="B2" s="1">
         <v>23.052505</v>
       </c>
       <c r="C2" s="1">
-        <v>908.495000</v>
+        <v>908.495</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.986000</v>
+        <v>-202.98599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>82999.063250</v>
+        <v>82999.063250000007</v>
       </c>
       <c r="G2" s="1">
-        <v>23.055295</v>
+        <v>23.055295000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>926.553000</v>
+        <v>926.553</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.790000</v>
+        <v>-171.79</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>83009.518421</v>
+        <v>83009.518421000001</v>
       </c>
       <c r="L2" s="1">
-        <v>23.058200</v>
+        <v>23.058199999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>950.388000</v>
+        <v>950.38800000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.391000</v>
+        <v>-122.39100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>83019.772743</v>
+        <v>83019.772742999994</v>
       </c>
       <c r="Q2" s="1">
         <v>23.061048</v>
       </c>
       <c r="R2" s="1">
-        <v>957.482000</v>
+        <v>957.48199999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.692000</v>
+        <v>-105.69199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>83030.331545</v>
+        <v>83030.331544999994</v>
       </c>
       <c r="V2" s="1">
-        <v>23.063981</v>
+        <v>23.063980999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>964.437000</v>
+        <v>964.43700000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.224300</v>
+        <v>-90.224299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>83040.768368</v>
+        <v>83040.768368000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.066880</v>
+        <v>23.066880000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>971.830000</v>
+        <v>971.83</v>
       </c>
       <c r="AC2" s="1">
-        <v>-78.219500</v>
+        <v>-78.219499999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>83051.359933</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.069822</v>
+        <v>23.069821999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>976.734000</v>
+        <v>976.73400000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.666200</v>
+        <v>-75.666200000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>83062.180655</v>
+        <v>83062.180655000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.072828</v>
+        <v>23.072828000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>984.050000</v>
+        <v>984.05</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.931500</v>
+        <v>-79.9315</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>83073.161586</v>
+        <v>83073.161586000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.075878</v>
+        <v>23.075877999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>992.153000</v>
+        <v>992.15300000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.185800</v>
+        <v>-91.1858</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>83084.173761</v>
+        <v>83084.173760999998</v>
       </c>
       <c r="AU2" s="1">
         <v>23.078937</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.561000</v>
+        <v>-108.56100000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>83095.316883</v>
+        <v>83095.316883000007</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.082032</v>
+        <v>23.082032000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.040000</v>
+        <v>-124.04</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>83106.348900</v>
+        <v>83106.348899999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.085097</v>
+        <v>23.085097000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.240000</v>
+        <v>-195.24</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>83117.382902</v>
+        <v>83117.382901999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.088162</v>
+        <v>23.088162000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1116.010000</v>
+        <v>1116.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.399000</v>
+        <v>-310.399</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>83128.813703</v>
+        <v>83128.813703000007</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.091337</v>
+        <v>23.091336999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1224.690000</v>
+        <v>1224.69</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-490.595000</v>
+        <v>-490.59500000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>83139.547128</v>
+        <v>83139.547128000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.094319</v>
+        <v>23.094318999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1346.480000</v>
+        <v>1346.48</v>
       </c>
       <c r="BV2" s="1">
-        <v>-686.955000</v>
+        <v>-686.95500000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>83150.377770</v>
+        <v>83150.377770000006</v>
       </c>
       <c r="BY2" s="1">
         <v>23.097327</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1481.340000</v>
+        <v>1481.34</v>
       </c>
       <c r="CA2" s="1">
-        <v>-895.636000</v>
+        <v>-895.63599999999997</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>83161.267940</v>
+        <v>83161.267940000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.100352</v>
+        <v>23.100352000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.760000</v>
+        <v>1830.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1389.710000</v>
+        <v>-1389.71</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>82989.451812</v>
+        <v>82989.451811999999</v>
       </c>
       <c r="B3" s="1">
         <v>23.052626</v>
       </c>
       <c r="C3" s="1">
-        <v>908.445000</v>
+        <v>908.44500000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-203.005000</v>
+        <v>-203.005</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>82999.484850</v>
+        <v>82999.484849999993</v>
       </c>
       <c r="G3" s="1">
         <v>23.055412</v>
       </c>
       <c r="H3" s="1">
-        <v>926.638000</v>
+        <v>926.63800000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.487000</v>
+        <v>-171.48699999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>83009.628037</v>
+        <v>83009.628037000002</v>
       </c>
       <c r="L3" s="1">
-        <v>23.058230</v>
+        <v>23.058229999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>950.310000</v>
+        <v>950.31</v>
       </c>
       <c r="N3" s="1">
-        <v>-122.326000</v>
+        <v>-122.32599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>83020.128344</v>
+        <v>83020.128343999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.061147</v>
+        <v>23.061146999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>957.516000</v>
+        <v>957.51599999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.711000</v>
+        <v>-105.711</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>83030.701560</v>
+        <v>83030.701560000001</v>
       </c>
       <c r="V3" s="1">
-        <v>23.064084</v>
+        <v>23.064084000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>964.413000</v>
+        <v>964.41300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.315900</v>
+        <v>-90.315899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>83041.157723</v>
+        <v>83041.157722999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.066988</v>
+        <v>23.066987999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>971.861000</v>
+        <v>971.86099999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-78.278700</v>
+        <v>-78.278700000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>83051.742350</v>
+        <v>83051.74235</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.069928</v>
+        <v>23.069928000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>976.711000</v>
+        <v>976.71100000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.665000</v>
+        <v>-75.665000000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>83062.908286</v>
+        <v>83062.908286000005</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.073030</v>
+        <v>23.073029999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>984.047000</v>
+        <v>984.04700000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.930100</v>
+        <v>-79.930099999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>83073.581733</v>
+        <v>83073.581732999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.075995</v>
+        <v>23.075994999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>992.164000</v>
+        <v>992.16399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.197000</v>
+        <v>-91.197000000000003</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>83084.585970</v>
+        <v>83084.58597</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.079052</v>
+        <v>23.079052000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.562000</v>
+        <v>-108.562</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>83095.710706</v>
+        <v>83095.710705999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23.082142</v>
+        <v>23.082142000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.051000</v>
+        <v>-124.051</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>83106.709988</v>
+        <v>83106.709988000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.085197</v>
+        <v>23.085197000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.254000</v>
+        <v>-195.25399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>83118.087717</v>
+        <v>83118.087717000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.088358</v>
+        <v>23.088357999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1115.980000</v>
+        <v>1115.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.399000</v>
+        <v>-310.399</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>83129.319126</v>
+        <v>83129.319126000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.091478</v>
+        <v>23.091477999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1224.630000</v>
+        <v>1224.6300000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-490.619000</v>
+        <v>-490.61900000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>83139.693982</v>
+        <v>83139.693981999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.094359</v>
+        <v>23.094359000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1346.420000</v>
+        <v>1346.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-686.997000</v>
+        <v>-686.99699999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>83150.859881</v>
+        <v>83150.859880999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.097461</v>
+        <v>23.097460999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1481.230000</v>
+        <v>1481.23</v>
       </c>
       <c r="CA3" s="1">
-        <v>-895.742000</v>
+        <v>-895.74199999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>83161.851227</v>
+        <v>83161.851227000006</v>
       </c>
       <c r="CD3" s="1">
         <v>23.100514</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.860000</v>
+        <v>1831.86</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1388.810000</v>
+        <v>-1388.81</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>82989.735487</v>
+        <v>82989.735486999998</v>
       </c>
       <c r="B4" s="1">
-        <v>23.052704</v>
+        <v>23.052703999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>908.655000</v>
+        <v>908.65499999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.080000</v>
+        <v>-203.08</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>82999.794354</v>
+        <v>82999.794353999998</v>
       </c>
       <c r="G4" s="1">
         <v>23.055498</v>
       </c>
       <c r="H4" s="1">
-        <v>926.634000</v>
+        <v>926.63400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.701000</v>
+        <v>-171.70099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>83009.965821</v>
+        <v>83009.965821000005</v>
       </c>
       <c r="L4" s="1">
-        <v>23.058324</v>
+        <v>23.058323999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>950.333000</v>
+        <v>950.33299999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-122.287000</v>
+        <v>-122.28700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>83020.478519</v>
+        <v>83020.478518999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.061244</v>
+        <v>23.061243999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>957.524000</v>
+        <v>957.524</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.723000</v>
+        <v>-105.723</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>83031.044824</v>
+        <v>83031.044823999997</v>
       </c>
       <c r="V4" s="1">
-        <v>23.064179</v>
+        <v>23.064178999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>964.451000</v>
+        <v>964.45100000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.265600</v>
+        <v>-90.265600000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>83041.852619</v>
+        <v>83041.852618999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.067181</v>
+        <v>23.067181000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>971.819000</v>
+        <v>971.81899999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-78.194300</v>
+        <v>-78.194299999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>83052.428316</v>
+        <v>83052.428316000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.070119</v>
+        <v>23.070118999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>976.748000</v>
+        <v>976.74800000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.674700</v>
+        <v>-75.674700000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>83063.258461</v>
+        <v>83063.258461000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.073127</v>
+        <v>23.073126999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>984.067000</v>
+        <v>984.06700000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.932500</v>
+        <v>-79.932500000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>83073.957167</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.076099</v>
+        <v>23.076098999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>992.151000</v>
+        <v>992.15099999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.205200</v>
+        <v>-91.205200000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>83084.951520</v>
+        <v>83084.951520000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.079153</v>
+        <v>23.079153000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.542000</v>
+        <v>-108.542</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>83096.383816</v>
+        <v>83096.383816000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.082329</v>
+        <v>23.082329000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.037000</v>
+        <v>-124.03700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>83107.389507</v>
@@ -1160,512 +1576,512 @@
         <v>23.085386</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.271000</v>
+        <v>-195.27099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>83118.522213</v>
+        <v>83118.522213000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.088478</v>
+        <v>23.088477999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1116.020000</v>
+        <v>1116.02</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.407000</v>
+        <v>-310.40699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>83129.739238</v>
+        <v>83129.739237999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.091594</v>
+        <v>23.091594000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1224.650000</v>
+        <v>1224.6500000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-490.651000</v>
+        <v>-490.65100000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>83140.105128</v>
+        <v>83140.105127999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.094474</v>
+        <v>23.094474000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1346.440000</v>
+        <v>1346.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.017000</v>
+        <v>-687.01700000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>83151.309784</v>
+        <v>83151.309783999997</v>
       </c>
       <c r="BY4" s="1">
         <v>23.097586</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1481.360000</v>
+        <v>1481.36</v>
       </c>
       <c r="CA4" s="1">
-        <v>-895.757000</v>
+        <v>-895.75699999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>83162.382442</v>
+        <v>83162.382442000002</v>
       </c>
       <c r="CD4" s="1">
         <v>23.100662</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.670000</v>
+        <v>1830.67</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1389.390000</v>
+        <v>-1389.39</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>82990.075258</v>
+        <v>82990.075257999997</v>
       </c>
       <c r="B5" s="1">
         <v>23.052799</v>
       </c>
       <c r="C5" s="1">
-        <v>908.530000</v>
+        <v>908.53</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.843000</v>
+        <v>-202.84299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>83000.134112</v>
       </c>
       <c r="G5" s="1">
-        <v>23.055593</v>
+        <v>23.055592999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>926.480000</v>
+        <v>926.48</v>
       </c>
       <c r="I5" s="1">
-        <v>-172.074000</v>
+        <v>-172.07400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>83010.312021</v>
+        <v>83010.312021000005</v>
       </c>
       <c r="L5" s="1">
-        <v>23.058420</v>
+        <v>23.058420000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>950.371000</v>
+        <v>950.37099999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-122.342000</v>
+        <v>-122.342</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>83021.173908</v>
+        <v>83021.173907999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.061437</v>
+        <v>23.061437000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>957.492000</v>
+        <v>957.49199999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.738000</v>
+        <v>-105.738</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>83031.732743</v>
       </c>
       <c r="V5" s="1">
-        <v>23.064370</v>
+        <v>23.06437</v>
       </c>
       <c r="W5" s="1">
-        <v>964.486000</v>
+        <v>964.48599999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.322900</v>
+        <v>-90.322900000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>83042.203785</v>
+        <v>83042.203785000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.067279</v>
+        <v>23.067278999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>971.815000</v>
+        <v>971.81500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-78.237100</v>
+        <v>-78.237099999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>83052.772043</v>
+        <v>83052.772043000004</v>
       </c>
       <c r="AF5" s="1">
         <v>23.070214</v>
       </c>
       <c r="AG5" s="1">
-        <v>976.742000</v>
+        <v>976.74199999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.669600</v>
+        <v>-75.669600000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>83063.608141</v>
+        <v>83063.608141000004</v>
       </c>
       <c r="AK5" s="1">
         <v>23.073224</v>
       </c>
       <c r="AL5" s="1">
-        <v>984.050000</v>
+        <v>984.05</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.965900</v>
+        <v>-79.965900000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>83074.628282</v>
+        <v>83074.628282000005</v>
       </c>
       <c r="AP5" s="1">
         <v>23.076286</v>
       </c>
       <c r="AQ5" s="1">
-        <v>992.136000</v>
+        <v>992.13599999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.191900</v>
+        <v>-91.191900000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>83085.629520</v>
+        <v>83085.629520000002</v>
       </c>
       <c r="AU5" s="1">
         <v>23.079342</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.545000</v>
+        <v>-108.545</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>83096.785537</v>
+        <v>83096.785537000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.082440</v>
+        <v>23.082439999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1010.260000</v>
+        <v>1010.26</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.038000</v>
+        <v>-124.038</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>83107.823506</v>
+        <v>83107.823506000001</v>
       </c>
       <c r="BE5" s="1">
         <v>23.085507</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.254000</v>
+        <v>-195.25399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>83118.926949</v>
+        <v>83118.926949000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.088591</v>
+        <v>23.088591000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.427000</v>
+        <v>-310.42700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>83130.138182</v>
+        <v>83130.138181999995</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.091705</v>
+        <v>23.091705000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1224.650000</v>
+        <v>1224.6500000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-490.650000</v>
+        <v>-490.65</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>83140.537387</v>
+        <v>83140.537387000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.094594</v>
+        <v>23.094594000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.064000</v>
+        <v>-687.06399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>83151.757144</v>
+        <v>83151.757144000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>23.097710</v>
+        <v>23.097709999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1481.290000</v>
+        <v>1481.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-895.781000</v>
+        <v>-895.78099999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>83162.903242</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.100806</v>
+        <v>23.100805999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.370000</v>
+        <v>1831.37</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1390.560000</v>
+        <v>-1390.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>82990.414543</v>
+        <v>82990.414543000006</v>
       </c>
       <c r="B6" s="1">
-        <v>23.052893</v>
+        <v>23.052893000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>908.498000</v>
+        <v>908.49800000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-203.083000</v>
+        <v>-203.083</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>83000.482304</v>
+        <v>83000.482304000005</v>
       </c>
       <c r="G6" s="1">
-        <v>23.055690</v>
+        <v>23.055689999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>926.615000</v>
+        <v>926.61500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.935000</v>
+        <v>-171.935</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>83011.003938</v>
+        <v>83011.003937999994</v>
       </c>
       <c r="L6" s="1">
         <v>23.058612</v>
       </c>
       <c r="M6" s="1">
-        <v>950.474000</v>
+        <v>950.47400000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.334000</v>
+        <v>-122.334</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>83021.522100</v>
+        <v>83021.522100000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.061534</v>
+        <v>23.061534000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>957.493000</v>
+        <v>957.49300000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.711000</v>
+        <v>-105.711</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>83032.080452</v>
+        <v>83032.080451999995</v>
       </c>
       <c r="V6" s="1">
         <v>23.064467</v>
       </c>
       <c r="W6" s="1">
-        <v>964.430000</v>
+        <v>964.43</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.328800</v>
+        <v>-90.328800000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>83042.552473</v>
+        <v>83042.552473000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.067376</v>
+        <v>23.067375999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>971.860000</v>
+        <v>971.86</v>
       </c>
       <c r="AC6" s="1">
-        <v>-78.191100</v>
+        <v>-78.191100000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>83053.116268</v>
+        <v>83053.116267999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>23.070310</v>
+        <v>23.070309999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>976.755000</v>
+        <v>976.755</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.639000</v>
+        <v>-75.638999999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>83064.264349</v>
+        <v>83064.264349000005</v>
       </c>
       <c r="AK6" s="1">
         <v>23.073407</v>
       </c>
       <c r="AL6" s="1">
-        <v>984.041000</v>
+        <v>984.04100000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.960000</v>
+        <v>-79.959999999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>83075.038446</v>
+        <v>83075.038446000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.076400</v>
+        <v>23.0764</v>
       </c>
       <c r="AQ6" s="1">
-        <v>992.150000</v>
+        <v>992.15</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.199200</v>
+        <v>-91.199200000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>83086.067487</v>
+        <v>83086.067486999993</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.079463</v>
+        <v>23.079463000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.557000</v>
+        <v>-108.557</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>83097.172417</v>
+        <v>83097.172416999994</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.082548</v>
+        <v>23.082547999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.027000</v>
+        <v>-124.027</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>83108.185587</v>
@@ -1674,709 +2090,709 @@
         <v>23.085607</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.266000</v>
+        <v>-195.26599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>83119.302451</v>
+        <v>83119.302450999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.088695</v>
+        <v>23.088695000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1116.010000</v>
+        <v>1116.01</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.416000</v>
+        <v>-310.416</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>83130.586900</v>
+        <v>83130.586899999995</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.091830</v>
+        <v>23.091830000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-490.609000</v>
+        <v>-490.60899999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>83140.966220</v>
+        <v>83140.966220000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.094713</v>
+        <v>23.094712999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.068000</v>
+        <v>-687.06799999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>83152.179768</v>
+        <v>83152.179768000002</v>
       </c>
       <c r="BY6" s="1">
         <v>23.097828</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1481.350000</v>
+        <v>1481.35</v>
       </c>
       <c r="CA6" s="1">
-        <v>-895.771000</v>
+        <v>-895.77099999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>83163.422057</v>
+        <v>83163.422057000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.100951</v>
+        <v>23.100950999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1832.320000</v>
+        <v>1832.32</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1389.810000</v>
+        <v>-1389.81</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>82991.098493</v>
+        <v>82991.098492999998</v>
       </c>
       <c r="B7" s="1">
-        <v>23.053083</v>
+        <v>23.053083000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>908.584000</v>
+        <v>908.58399999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.225000</v>
+        <v>-203.22499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>83001.171744</v>
+        <v>83001.171744000007</v>
       </c>
       <c r="G7" s="1">
-        <v>23.055881</v>
+        <v>23.055880999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>926.431000</v>
+        <v>926.43100000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-172.211000</v>
+        <v>-172.21100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>83011.346674</v>
       </c>
       <c r="L7" s="1">
-        <v>23.058707</v>
+        <v>23.058706999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>950.363000</v>
+        <v>950.36300000000006</v>
       </c>
       <c r="N7" s="1">
-        <v>-122.410000</v>
+        <v>-122.41</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>83021.872803</v>
+        <v>83021.872803000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.061631</v>
+        <v>23.061630999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>957.488000</v>
+        <v>957.48800000000006</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.686000</v>
+        <v>-105.68600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>83032.424166</v>
+        <v>83032.424165999997</v>
       </c>
       <c r="V7" s="1">
-        <v>23.064562</v>
+        <v>23.064561999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>964.375000</v>
+        <v>964.375</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.400400</v>
+        <v>-90.400400000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>83043.212513</v>
+        <v>83043.212513000006</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.067559</v>
+        <v>23.067558999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>971.892000</v>
+        <v>971.89200000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-78.207300</v>
+        <v>-78.207300000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>83053.778273</v>
+        <v>83053.778273000004</v>
       </c>
       <c r="AF7" s="1">
         <v>23.070494</v>
       </c>
       <c r="AG7" s="1">
-        <v>976.772000</v>
+        <v>976.77200000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.669900</v>
+        <v>-75.669899999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>83064.653212</v>
+        <v>83064.653212000005</v>
       </c>
       <c r="AK7" s="1">
         <v>23.073515</v>
       </c>
       <c r="AL7" s="1">
-        <v>984.039000</v>
+        <v>984.03899999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.948100</v>
+        <v>-79.948099999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>83075.399038</v>
+        <v>83075.399038000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.076500</v>
+        <v>23.076499999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>992.139000</v>
+        <v>992.13900000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.188300</v>
+        <v>-91.188299999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>83086.433534</v>
+        <v>83086.433533999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.079565</v>
+        <v>23.079564999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.550000</v>
+        <v>-108.55</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>83097.533040</v>
+        <v>83097.533039999995</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.082648</v>
+        <v>23.082647999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1010.230000</v>
+        <v>1010.23</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.036000</v>
+        <v>-124.036</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>83108.758465</v>
+        <v>83108.758465000006</v>
       </c>
       <c r="BE7" s="1">
         <v>23.085766</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.265000</v>
+        <v>-195.26499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>83119.737411</v>
+        <v>83119.737410999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.088816</v>
+        <v>23.088816000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1116.000000</v>
+        <v>1116</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.420000</v>
+        <v>-310.42</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>83130.953948</v>
+        <v>83130.953947999995</v>
       </c>
       <c r="BO7" s="1">
         <v>23.091932</v>
       </c>
       <c r="BP7" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-490.594000</v>
+        <v>-490.59399999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>83141.380342</v>
+        <v>83141.380342000004</v>
       </c>
       <c r="BT7" s="1">
         <v>23.094828</v>
       </c>
       <c r="BU7" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.118000</v>
+        <v>-687.11800000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>83152.603059</v>
+        <v>83152.603059000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.097945</v>
+        <v>23.097944999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1481.280000</v>
+        <v>1481.28</v>
       </c>
       <c r="CA7" s="1">
-        <v>-895.896000</v>
+        <v>-895.89599999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>83163.939880</v>
+        <v>83163.939880000005</v>
       </c>
       <c r="CD7" s="1">
         <v>23.101094</v>
       </c>
       <c r="CE7" s="1">
-        <v>1832.190000</v>
+        <v>1832.19</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1389.900000</v>
+        <v>-1389.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>82991.441724</v>
+        <v>82991.441724000004</v>
       </c>
       <c r="B8" s="1">
-        <v>23.053178</v>
+        <v>23.053177999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>908.449000</v>
+        <v>908.44899999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-203.080000</v>
+        <v>-203.08</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>83001.522912</v>
       </c>
       <c r="G8" s="1">
-        <v>23.055979</v>
+        <v>23.055979000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>926.446000</v>
+        <v>926.44600000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-172.073000</v>
+        <v>-172.07300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>83011.694369</v>
+        <v>83011.694369000004</v>
       </c>
       <c r="L8" s="1">
-        <v>23.058804</v>
+        <v>23.058803999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>950.456000</v>
+        <v>950.45600000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-122.281000</v>
+        <v>-122.28100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>83022.537443</v>
+        <v>83022.537442999994</v>
       </c>
       <c r="Q8" s="1">
         <v>23.061816</v>
       </c>
       <c r="R8" s="1">
-        <v>957.555000</v>
+        <v>957.55499999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.675000</v>
+        <v>-105.675</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>83033.081899</v>
+        <v>83033.081898999997</v>
       </c>
       <c r="V8" s="1">
-        <v>23.064745</v>
+        <v>23.064744999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>964.424000</v>
+        <v>964.42399999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.314500</v>
+        <v>-90.314499999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>83043.599032</v>
+        <v>83043.599031999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.067666</v>
+        <v>23.067665999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>971.825000</v>
+        <v>971.82500000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-78.193400</v>
+        <v>-78.193399999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>83054.153899</v>
+        <v>83054.153898999997</v>
       </c>
       <c r="AF8" s="1">
         <v>23.070598</v>
       </c>
       <c r="AG8" s="1">
-        <v>976.723000</v>
+        <v>976.72299999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.700000</v>
+        <v>-75.7</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>83065.000906</v>
+        <v>83065.000906000001</v>
       </c>
       <c r="AK8" s="1">
         <v>23.073611</v>
       </c>
       <c r="AL8" s="1">
-        <v>984.056000</v>
+        <v>984.05600000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.938400</v>
+        <v>-79.938400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>83075.758141</v>
+        <v>83075.758140999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>23.076599</v>
+        <v>23.076599000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>992.144000</v>
+        <v>992.14400000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.198600</v>
+        <v>-91.198599999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>83086.798590</v>
+        <v>83086.798590000006</v>
       </c>
       <c r="AU8" s="1">
         <v>23.079666</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.575000</v>
+        <v>-108.575</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>83097.956096</v>
+        <v>83097.956095999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>23.082766</v>
+        <v>23.082765999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.039000</v>
+        <v>-124.039</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>83108.908753</v>
+        <v>83108.908752999996</v>
       </c>
       <c r="BE8" s="1">
         <v>23.085808</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.263000</v>
+        <v>-195.26300000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>83120.076675</v>
+        <v>83120.076675000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.088910</v>
+        <v>23.088909999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1116.000000</v>
+        <v>1116</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.421000</v>
+        <v>-310.42099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>83131.375043</v>
+        <v>83131.375043000007</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.092049</v>
+        <v>23.092048999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1224.630000</v>
+        <v>1224.6300000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-490.625000</v>
+        <v>-490.625</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>83141.809382</v>
+        <v>83141.809382000007</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.094947</v>
+        <v>23.094947000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.098000</v>
+        <v>-687.09799999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>83153.051239</v>
+        <v>83153.051238999993</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.098070</v>
+        <v>23.09807</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1481.300000</v>
+        <v>1481.3</v>
       </c>
       <c r="CA8" s="1">
-        <v>-895.743000</v>
+        <v>-895.74300000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>83164.489944</v>
+        <v>83164.489944000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.101247</v>
+        <v>23.101247000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1832.160000</v>
+        <v>1832.16</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1390.490000</v>
+        <v>-1390.49</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>82991.787931</v>
+        <v>82991.787930999999</v>
       </c>
       <c r="B9" s="1">
-        <v>23.053274</v>
+        <v>23.053273999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>908.423000</v>
+        <v>908.423</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.931000</v>
+        <v>-202.93100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>83002.037795</v>
+        <v>83002.037794999997</v>
       </c>
       <c r="G9" s="1">
-        <v>23.056122</v>
+        <v>23.056121999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>926.495000</v>
+        <v>926.495</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.776000</v>
+        <v>-171.77600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>83012.351570</v>
+        <v>83012.351569999999</v>
       </c>
       <c r="L9" s="1">
-        <v>23.058987</v>
+        <v>23.058986999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>950.466000</v>
+        <v>950.46600000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-122.138000</v>
+        <v>-122.13800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>83022.917844</v>
+        <v>83022.917843999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.061922</v>
+        <v>23.061921999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>957.546000</v>
+        <v>957.54600000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.670000</v>
+        <v>-105.67</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>83033.451915</v>
+        <v>83033.451914999998</v>
       </c>
       <c r="V9" s="1">
-        <v>23.064848</v>
+        <v>23.064848000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>964.428000</v>
+        <v>964.428</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.276300</v>
+        <v>-90.276300000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>83043.944280</v>
+        <v>83043.944279999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.067762</v>
+        <v>23.067761999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>971.878000</v>
+        <v>971.87800000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-78.150100</v>
+        <v>-78.150099999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>83054.581449</v>
+        <v>83054.581449000005</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.070717</v>
+        <v>23.070716999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>976.745000</v>
+        <v>976.745</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.749900</v>
+        <v>-75.749899999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>83065.350586</v>
@@ -2385,73 +2801,73 @@
         <v>23.073708</v>
       </c>
       <c r="AL9" s="1">
-        <v>984.025000</v>
+        <v>984.02499999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.934200</v>
+        <v>-79.934200000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>83076.186716</v>
+        <v>83076.186715999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.076719</v>
+        <v>23.076719000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>992.153000</v>
+        <v>992.15300000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.179100</v>
+        <v>-91.179100000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>83087.227134</v>
+        <v>83087.227134000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.079785</v>
+        <v>23.079785000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.569000</v>
+        <v>-108.569</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>83098.248767</v>
+        <v>83098.248766999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.082847</v>
+        <v>23.082847000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.040000</v>
+        <v>-124.04</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>83109.269840</v>
+        <v>83109.269839999994</v>
       </c>
       <c r="BE9" s="1">
         <v>23.085908</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.254000</v>
+        <v>-195.25399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>83120.453169</v>
@@ -2460,497 +2876,497 @@
         <v>23.089015</v>
       </c>
       <c r="BK9" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.432000</v>
+        <v>-310.43200000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>83131.768867</v>
+        <v>83131.768867000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.092158</v>
+        <v>23.092158000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-490.631000</v>
+        <v>-490.63099999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>83142.234453</v>
+        <v>83142.234452999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.095065</v>
+        <v>23.095065000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.140000</v>
+        <v>-687.14</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>83153.481238</v>
+        <v>83153.481237999993</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.098189</v>
+        <v>23.098189000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1481.220000</v>
+        <v>1481.22</v>
       </c>
       <c r="CA9" s="1">
-        <v>-895.846000</v>
+        <v>-895.846</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>83165.018449</v>
+        <v>83165.018448999996</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.101394</v>
+        <v>23.101393999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1832.350000</v>
+        <v>1832.35</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1389.030000</v>
+        <v>-1389.03</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>82992.438187</v>
+        <v>82992.438187000007</v>
       </c>
       <c r="B10" s="1">
         <v>23.053455</v>
       </c>
       <c r="C10" s="1">
-        <v>908.415000</v>
+        <v>908.41499999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.781000</v>
+        <v>-202.78100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>83002.567498</v>
+        <v>83002.567498000004</v>
       </c>
       <c r="G10" s="1">
         <v>23.056269</v>
       </c>
       <c r="H10" s="1">
-        <v>926.182000</v>
+        <v>926.18200000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-172.163000</v>
+        <v>-172.16300000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>83012.730512</v>
+        <v>83012.730511999995</v>
       </c>
       <c r="L10" s="1">
         <v>23.059092</v>
       </c>
       <c r="M10" s="1">
-        <v>950.359000</v>
+        <v>950.35900000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-122.233000</v>
+        <v>-122.233</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>83023.266034</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.062018</v>
+        <v>23.062017999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>957.507000</v>
+        <v>957.50699999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.731000</v>
+        <v>-105.73099999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>83033.797588</v>
+        <v>83033.797588000001</v>
       </c>
       <c r="V10" s="1">
-        <v>23.064944</v>
+        <v>23.064944000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>964.382000</v>
+        <v>964.38199999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.212800</v>
+        <v>-90.212800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>83044.297399</v>
+        <v>83044.297399000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.067860</v>
+        <v>23.06786</v>
       </c>
       <c r="AB10" s="1">
-        <v>971.821000</v>
+        <v>971.82100000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-78.185400</v>
+        <v>-78.185400000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>83054.864664</v>
+        <v>83054.864663999993</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.070796</v>
+        <v>23.070796000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>976.701000</v>
+        <v>976.70100000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.627900</v>
+        <v>-75.627899999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>83065.766761</v>
+        <v>83065.766761000006</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.073824</v>
+        <v>23.073823999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>984.027000</v>
+        <v>984.02700000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.936000</v>
+        <v>-79.936000000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>83076.477869</v>
+        <v>83076.477868999995</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.076799</v>
+        <v>23.076799000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>992.138000</v>
+        <v>992.13800000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.201100</v>
+        <v>-91.201099999999997</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>83087.528242</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.079869</v>
+        <v>23.079868999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.557000</v>
+        <v>-108.557</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>83098.609326</v>
+        <v>83098.609326000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>23.082947</v>
+        <v>23.082947000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.043000</v>
+        <v>-124.04300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>83109.629936</v>
+        <v>83109.629935999998</v>
       </c>
       <c r="BE10" s="1">
         <v>23.086008</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.273000</v>
+        <v>-195.273</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>83120.827122</v>
+        <v>83120.827122000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>23.089119</v>
       </c>
       <c r="BK10" s="1">
-        <v>1116.000000</v>
+        <v>1116</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.415000</v>
+        <v>-310.41500000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>83132.189971</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.092275</v>
+        <v>23.092275000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-490.650000</v>
+        <v>-490.65</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>83143.077652</v>
+        <v>83143.077652000007</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.095299</v>
+        <v>23.095299000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1346.540000</v>
+        <v>1346.54</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.142000</v>
+        <v>-687.14200000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>83153.903830</v>
+        <v>83153.903829999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.098307</v>
+        <v>23.098306999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1481.360000</v>
+        <v>1481.36</v>
       </c>
       <c r="CA10" s="1">
-        <v>-895.795000</v>
+        <v>-895.79499999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>83165.536998</v>
+        <v>83165.536997999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>23.101538</v>
+        <v>23.101538000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.130000</v>
+        <v>1831.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1388.960000</v>
+        <v>-1388.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>82992.809194</v>
+        <v>82992.809194000001</v>
       </c>
       <c r="B11" s="1">
-        <v>23.053558</v>
+        <v>23.053557999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>908.542000</v>
+        <v>908.54200000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.035000</v>
+        <v>-203.035</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>83002.933534</v>
+        <v>83002.933533999996</v>
       </c>
       <c r="G11" s="1">
-        <v>23.056370</v>
+        <v>23.056370000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>926.426000</v>
+        <v>926.42600000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-172.031000</v>
+        <v>-172.03100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>83013.074769</v>
+        <v>83013.074768999999</v>
       </c>
       <c r="L11" s="1">
-        <v>23.059187</v>
+        <v>23.059187000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>950.341000</v>
+        <v>950.34100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-122.290000</v>
+        <v>-122.29</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>83023.617699</v>
+        <v>83023.617698999995</v>
       </c>
       <c r="Q11" s="1">
         <v>23.062116</v>
       </c>
       <c r="R11" s="1">
-        <v>957.489000</v>
+        <v>957.48900000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.730000</v>
+        <v>-105.73</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>83034.139830</v>
+        <v>83034.13983</v>
       </c>
       <c r="V11" s="1">
-        <v>23.065039</v>
+        <v>23.065038999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>964.452000</v>
+        <v>964.452</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.293200</v>
+        <v>-90.293199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>83044.730902</v>
+        <v>83044.730901999996</v>
       </c>
       <c r="AA11" s="1">
         <v>23.067981</v>
       </c>
       <c r="AB11" s="1">
-        <v>971.957000</v>
+        <v>971.95699999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-78.147700</v>
+        <v>-78.1477</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>83055.552615</v>
+        <v>83055.552614999993</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.070987</v>
+        <v>23.070986999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>976.648000</v>
+        <v>976.64800000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.551600</v>
+        <v>-75.551599999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>83066.065818</v>
+        <v>83066.065818000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.073907</v>
+        <v>23.073906999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>984.066000</v>
+        <v>984.06600000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.945700</v>
+        <v>-79.945700000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>83076.839420</v>
+        <v>83076.839420000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>23.076900</v>
+        <v>23.076899999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>992.129000</v>
+        <v>992.12900000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.200700</v>
+        <v>-91.200699999999998</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>83087.891278</v>
+        <v>83087.891277999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.079970</v>
+        <v>23.079969999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.558000</v>
+        <v>-108.55800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>83098.965951</v>
+        <v>83098.965951000006</v>
       </c>
       <c r="AZ11" s="1">
         <v>23.083046</v>
       </c>
       <c r="BA11" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.053000</v>
+        <v>-124.053</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>83110.352111</v>
@@ -2959,1919 +3375,1919 @@
         <v>23.086209</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.271000</v>
+        <v>-195.27099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>83121.577600</v>
+        <v>83121.577600000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.089327</v>
+        <v>23.089327000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1115.980000</v>
+        <v>1115.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.423000</v>
+        <v>-310.423</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>83132.588787</v>
+        <v>83132.588787000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.092386</v>
+        <v>23.092386000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-490.639000</v>
+        <v>-490.63900000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>83143.504211</v>
+        <v>83143.504211000007</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.095418</v>
+        <v>23.095417999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.179000</v>
+        <v>-687.17899999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>83154.327940</v>
+        <v>83154.327940000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.098424</v>
+        <v>23.098424000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1481.310000</v>
+        <v>1481.31</v>
       </c>
       <c r="CA11" s="1">
-        <v>-895.849000</v>
+        <v>-895.84900000000005</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>83166.370774</v>
+        <v>83166.370773999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.101770</v>
+        <v>23.101769999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.940000</v>
+        <v>1830.94</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1390.160000</v>
+        <v>-1390.16</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>82993.153914</v>
+        <v>82993.153913999995</v>
       </c>
       <c r="B12" s="1">
-        <v>23.053654</v>
+        <v>23.053654000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>908.382000</v>
+        <v>908.38199999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.852000</v>
+        <v>-202.852</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>83003.256430</v>
+        <v>83003.256429999994</v>
       </c>
       <c r="G12" s="1">
-        <v>23.056460</v>
+        <v>23.056460000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>926.596000</v>
+        <v>926.596</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.495000</v>
+        <v>-171.495</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>83013.422463</v>
+        <v>83013.422462999995</v>
       </c>
       <c r="L12" s="1">
-        <v>23.059284</v>
+        <v>23.059284000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>950.298000</v>
+        <v>950.298</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.203000</v>
+        <v>-122.203</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>83024.045746</v>
+        <v>83024.045746000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.062235</v>
+        <v>23.062235000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>957.438000</v>
+        <v>957.43799999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.732000</v>
+        <v>-105.732</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>83034.577299</v>
+        <v>83034.577298999997</v>
       </c>
       <c r="V12" s="1">
-        <v>23.065160</v>
+        <v>23.065159999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>964.377000</v>
+        <v>964.37699999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.369200</v>
+        <v>-90.369200000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>83045.004694</v>
+        <v>83045.004694000003</v>
       </c>
       <c r="AA12" s="1">
         <v>23.068057</v>
       </c>
       <c r="AB12" s="1">
-        <v>971.878000</v>
+        <v>971.87800000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-78.159200</v>
+        <v>-78.159199999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>83055.898823</v>
+        <v>83055.898822999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.071083</v>
+        <v>23.071083000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>976.615000</v>
+        <v>976.61500000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.521500</v>
+        <v>-75.521500000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>83066.415001</v>
+        <v>83066.415001000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.074004</v>
+        <v>23.074003999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>984.064000</v>
+        <v>984.06399999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.936300</v>
+        <v>-79.936300000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>83077.201499</v>
+        <v>83077.201499000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.077000</v>
+        <v>23.077000000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>992.140000</v>
+        <v>992.14</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.207200</v>
+        <v>-91.2072</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>83088.258579</v>
+        <v>83088.258579000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.080072</v>
+        <v>23.080072000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.545000</v>
+        <v>-108.545</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>83099.690859</v>
+        <v>83099.690858999995</v>
       </c>
       <c r="AZ12" s="1">
         <v>23.083247</v>
       </c>
       <c r="BA12" s="1">
-        <v>1010.260000</v>
+        <v>1010.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.027000</v>
+        <v>-124.027</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>83110.712206</v>
+        <v>83110.712205999997</v>
       </c>
       <c r="BE12" s="1">
         <v>23.086309</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.244000</v>
+        <v>-195.244</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>83121.955520</v>
+        <v>83121.955520000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.089432</v>
+        <v>23.089431999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.412000</v>
+        <v>-310.41199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>83133.008401</v>
+        <v>83133.008400999999</v>
       </c>
       <c r="BO12" s="1">
         <v>23.092502</v>
       </c>
       <c r="BP12" s="1">
-        <v>1224.650000</v>
+        <v>1224.6500000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-490.657000</v>
+        <v>-490.65699999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>83144.252192</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.095626</v>
+        <v>23.095625999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.225000</v>
+        <v>-687.22500000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>83155.060996</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.098628</v>
+        <v>23.098628000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1481.300000</v>
+        <v>1481.3</v>
       </c>
       <c r="CA12" s="1">
-        <v>-895.827000</v>
+        <v>-895.827</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>83166.603397</v>
+        <v>83166.603396999999</v>
       </c>
       <c r="CD12" s="1">
         <v>23.101834</v>
       </c>
       <c r="CE12" s="1">
-        <v>1832.490000</v>
+        <v>1832.49</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1389.690000</v>
+        <v>-1389.69</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>82993.491689</v>
+        <v>82993.491689000002</v>
       </c>
       <c r="B13" s="1">
-        <v>23.053748</v>
+        <v>23.053747999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>908.481000</v>
+        <v>908.48099999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.824000</v>
+        <v>-202.82400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>83003.680540</v>
+        <v>83003.680540000001</v>
       </c>
       <c r="G13" s="1">
-        <v>23.056578</v>
+        <v>23.056577999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>926.165000</v>
+        <v>926.16499999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.764000</v>
+        <v>-171.76400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>83013.845518</v>
+        <v>83013.845518000002</v>
       </c>
       <c r="L13" s="1">
-        <v>23.059402</v>
+        <v>23.059401999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>950.642000</v>
+        <v>950.64200000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-122.253000</v>
+        <v>-122.253</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>83024.326527</v>
+        <v>83024.326526999997</v>
       </c>
       <c r="Q13" s="1">
         <v>23.062313</v>
       </c>
       <c r="R13" s="1">
-        <v>957.442000</v>
+        <v>957.44200000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.751000</v>
+        <v>-105.751</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>83034.832275</v>
+        <v>83034.832274999993</v>
       </c>
       <c r="V13" s="1">
-        <v>23.065231</v>
+        <v>23.065231000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>964.496000</v>
+        <v>964.49599999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.327300</v>
+        <v>-90.327299999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>83045.351397</v>
+        <v>83045.351397000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.068153</v>
+        <v>23.068152999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>971.817000</v>
+        <v>971.81700000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-78.148400</v>
+        <v>-78.148399999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>83056.241063</v>
+        <v>83056.241062999994</v>
       </c>
       <c r="AF13" s="1">
         <v>23.071178</v>
       </c>
       <c r="AG13" s="1">
-        <v>976.756000</v>
+        <v>976.75599999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.531700</v>
+        <v>-75.531700000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>83066.764682</v>
+        <v>83066.764681999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.074101</v>
+        <v>23.074100999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>984.049000</v>
+        <v>984.04899999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.946100</v>
+        <v>-79.946100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>83077.921194</v>
+        <v>83077.921193999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.077200</v>
+        <v>23.077200000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>992.115000</v>
+        <v>992.11500000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.202100</v>
+        <v>-91.202100000000002</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>83088.989916</v>
+        <v>83088.989916000006</v>
       </c>
       <c r="AU13" s="1">
         <v>23.080275</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.554000</v>
+        <v>-108.554</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>83100.068061</v>
+        <v>83100.068060999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.083352</v>
+        <v>23.083352000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>83111.076282</v>
+        <v>83111.076281999995</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.086410</v>
+        <v>23.086410000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.268000</v>
+        <v>-195.268</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>83122.328016</v>
+        <v>83122.328015999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.089536</v>
+        <v>23.089535999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1115.970000</v>
+        <v>1115.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.415000</v>
+        <v>-310.41500000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>83133.715696</v>
+        <v>83133.715695999999</v>
       </c>
       <c r="BO13" s="1">
         <v>23.092699</v>
       </c>
       <c r="BP13" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-490.645000</v>
+        <v>-490.64499999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>83144.384114</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.095662</v>
+        <v>23.095662000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.211000</v>
+        <v>-687.21100000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>83155.169269</v>
+        <v>83155.169269000005</v>
       </c>
       <c r="BY13" s="1">
         <v>23.098658</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1481.280000</v>
+        <v>1481.28</v>
       </c>
       <c r="CA13" s="1">
-        <v>-895.885000</v>
+        <v>-895.88499999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>83167.139574</v>
+        <v>83167.139574000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.101983</v>
+        <v>23.101983000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.850000</v>
+        <v>1830.85</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1389.060000</v>
+        <v>-1389.06</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>82993.913289</v>
+        <v>82993.913289000004</v>
       </c>
       <c r="B14" s="1">
-        <v>23.053865</v>
+        <v>23.053864999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>908.459000</v>
+        <v>908.45899999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.790000</v>
+        <v>-202.79</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>83003.960252</v>
+        <v>83003.960252000004</v>
       </c>
       <c r="G14" s="1">
         <v>23.056656</v>
       </c>
       <c r="H14" s="1">
-        <v>926.683000</v>
+        <v>926.68299999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.887000</v>
+        <v>-171.887</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>83014.126750</v>
+        <v>83014.126749999996</v>
       </c>
       <c r="L14" s="1">
-        <v>23.059480</v>
+        <v>23.059480000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>950.361000</v>
+        <v>950.36099999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.392000</v>
+        <v>-122.392</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>83024.675168</v>
+        <v>83024.675168000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.062410</v>
+        <v>23.06241</v>
       </c>
       <c r="R14" s="1">
-        <v>957.506000</v>
+        <v>957.50599999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.716000</v>
+        <v>-105.71599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>83035.176962</v>
+        <v>83035.176961999998</v>
       </c>
       <c r="V14" s="1">
         <v>23.065327</v>
       </c>
       <c r="W14" s="1">
-        <v>964.448000</v>
+        <v>964.44799999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.318200</v>
+        <v>-90.318200000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>83045.703556</v>
+        <v>83045.703555999993</v>
       </c>
       <c r="AA14" s="1">
         <v>23.068251</v>
       </c>
       <c r="AB14" s="1">
-        <v>971.865000</v>
+        <v>971.86500000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-78.167400</v>
+        <v>-78.167400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>83056.930006</v>
+        <v>83056.930005999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.071369</v>
+        <v>23.071369000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>976.771000</v>
+        <v>976.77099999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.668300</v>
+        <v>-75.668300000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>83067.460567</v>
+        <v>83067.460567000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.074295</v>
+        <v>23.074294999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>984.038000</v>
+        <v>984.03800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.966100</v>
+        <v>-79.966099999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>83078.280794</v>
+        <v>83078.280794000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.077300</v>
+        <v>23.077300000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>992.140000</v>
+        <v>992.14</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.204800</v>
+        <v>-91.204800000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>83089.351003</v>
+        <v>83089.351003000003</v>
       </c>
       <c r="AU14" s="1">
         <v>23.080375</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.544000</v>
+        <v>-108.544</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>83100.454941</v>
+        <v>83100.454941000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.083460</v>
+        <v>23.083459999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>83111.751822</v>
+        <v>83111.751822000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.086598</v>
+        <v>23.086597999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.990000</v>
+        <v>1048.99</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.278000</v>
+        <v>-195.27799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>83123.012990</v>
+        <v>83123.012990000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.089726</v>
+        <v>23.089725999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1115.970000</v>
+        <v>1115.97</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.414000</v>
+        <v>-310.41399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>83133.843632</v>
+        <v>83133.843632000004</v>
       </c>
       <c r="BO14" s="1">
         <v>23.092734</v>
       </c>
       <c r="BP14" s="1">
-        <v>1224.610000</v>
+        <v>1224.6099999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-490.611000</v>
+        <v>-490.61099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>83144.793809</v>
+        <v>83144.793808999995</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.095776</v>
+        <v>23.095776000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1346.550000</v>
+        <v>1346.55</v>
       </c>
       <c r="BV14" s="1">
-        <v>-687.228000</v>
+        <v>-687.22799999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>83155.600643</v>
+        <v>83155.600642999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.098778</v>
+        <v>23.098777999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1481.290000</v>
+        <v>1481.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-895.885000</v>
+        <v>-895.88499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>83167.679219</v>
+        <v>83167.679218999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.102133</v>
+        <v>23.102132999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1832.210000</v>
+        <v>1832.21</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1390.430000</v>
+        <v>-1390.43</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>82994.191082</v>
+        <v>82994.191082000005</v>
       </c>
       <c r="B15" s="1">
-        <v>23.053942</v>
+        <v>23.053941999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>908.355000</v>
+        <v>908.35500000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-203.099000</v>
+        <v>-203.09899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>83004.304012</v>
+        <v>83004.304011999993</v>
       </c>
       <c r="G15" s="1">
-        <v>23.056751</v>
+        <v>23.056750999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>926.656000</v>
+        <v>926.65599999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-172.130000</v>
+        <v>-172.13</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>83014.470479</v>
+        <v>83014.470478999996</v>
       </c>
       <c r="L15" s="1">
-        <v>23.059575</v>
+        <v>23.059574999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>950.436000</v>
+        <v>950.43600000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.144000</v>
+        <v>-122.14400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>83025.021904</v>
+        <v>83025.021903999994</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.062506</v>
+        <v>23.062505999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>957.533000</v>
+        <v>957.53300000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.707000</v>
+        <v>-105.70699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>83035.524162</v>
+        <v>83035.524162000002</v>
       </c>
       <c r="V15" s="1">
-        <v>23.065423</v>
+        <v>23.065422999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>964.439000</v>
+        <v>964.43899999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.298000</v>
+        <v>-90.298000000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>83046.399445</v>
+        <v>83046.399445000003</v>
       </c>
       <c r="AA15" s="1">
         <v>23.068444</v>
       </c>
       <c r="AB15" s="1">
-        <v>971.947000</v>
+        <v>971.947</v>
       </c>
       <c r="AC15" s="1">
-        <v>-78.208800</v>
+        <v>-78.208799999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>83057.270299</v>
+        <v>83057.270298999996</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.071464</v>
+        <v>23.071463999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>976.832000</v>
+        <v>976.83199999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.585400</v>
+        <v>-75.585400000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>83067.809752</v>
+        <v>83067.809752000001</v>
       </c>
       <c r="AK15" s="1">
         <v>23.074392</v>
       </c>
       <c r="AL15" s="1">
-        <v>984.013000</v>
+        <v>984.01300000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.934200</v>
+        <v>-79.934200000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>83078.639402</v>
+        <v>83078.639402000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.077400</v>
+        <v>23.077400000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>992.140000</v>
+        <v>992.14</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.190900</v>
+        <v>-91.190899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>83089.712586</v>
+        <v>83089.712585999994</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.080476</v>
+        <v>23.080476000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.592000</v>
+        <v>-108.592</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>83101.131979</v>
+        <v>83101.131978999998</v>
       </c>
       <c r="AZ15" s="1">
         <v>23.083648</v>
       </c>
       <c r="BA15" s="1">
-        <v>1010.260000</v>
+        <v>1010.26</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.050000</v>
+        <v>-124.05</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>83112.185326</v>
+        <v>83112.185326000006</v>
       </c>
       <c r="BE15" s="1">
-        <v>23.086718</v>
+        <v>23.086718000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.960000</v>
+        <v>1048.96</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.264000</v>
+        <v>-195.26400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>83123.455468</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.089849</v>
+        <v>23.089849000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1116.000000</v>
+        <v>1116</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.427000</v>
+        <v>-310.42700000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>83134.253823</v>
+        <v>83134.253823000006</v>
       </c>
       <c r="BO15" s="1">
         <v>23.092848</v>
       </c>
       <c r="BP15" s="1">
-        <v>1224.680000</v>
+        <v>1224.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-490.656000</v>
+        <v>-490.65600000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>83145.221857</v>
+        <v>83145.221856999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.095895</v>
+        <v>23.095894999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1346.550000</v>
+        <v>1346.55</v>
       </c>
       <c r="BV15" s="1">
-        <v>-687.226000</v>
+        <v>-687.226</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>83156.024226</v>
+        <v>83156.024225999994</v>
       </c>
       <c r="BY15" s="1">
         <v>23.098896</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1481.350000</v>
+        <v>1481.35</v>
       </c>
       <c r="CA15" s="1">
-        <v>-895.739000</v>
+        <v>-895.73900000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>83168.218370</v>
+        <v>83168.218370000002</v>
       </c>
       <c r="CD15" s="1">
         <v>23.102283</v>
       </c>
       <c r="CE15" s="1">
-        <v>1831.620000</v>
+        <v>1831.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1388.970000</v>
+        <v>-1388.97</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>82994.536264</v>
+        <v>82994.536263999995</v>
       </c>
       <c r="B16" s="1">
-        <v>23.054038</v>
+        <v>23.054037999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>908.611000</v>
+        <v>908.61099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.828000</v>
+        <v>-202.828</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>83004.650187</v>
+        <v>83004.650187000007</v>
       </c>
       <c r="G16" s="1">
-        <v>23.056847</v>
+        <v>23.056847000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>926.605000</v>
+        <v>926.60500000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-172.133000</v>
+        <v>-172.13300000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>83014.815197</v>
+        <v>83014.815197000004</v>
       </c>
       <c r="L16" s="1">
-        <v>23.059671</v>
+        <v>23.059671000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>950.561000</v>
+        <v>950.56100000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-122.323000</v>
+        <v>-122.32299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>83025.721759</v>
+        <v>83025.721758999993</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.062700</v>
+        <v>23.0627</v>
       </c>
       <c r="R16" s="1">
-        <v>957.489000</v>
+        <v>957.48900000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.730000</v>
+        <v>-105.73</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>83036.216118</v>
+        <v>83036.216117999997</v>
       </c>
       <c r="V16" s="1">
-        <v>23.065616</v>
+        <v>23.065615999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>964.437000</v>
+        <v>964.43700000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.372100</v>
+        <v>-90.372100000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>83046.748627</v>
+        <v>83046.748626999994</v>
       </c>
       <c r="AA16" s="1">
         <v>23.068541</v>
       </c>
       <c r="AB16" s="1">
-        <v>971.826000</v>
+        <v>971.82600000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-78.163000</v>
+        <v>-78.162999999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>83057.616469</v>
+        <v>83057.616469000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.071560</v>
+        <v>23.071560000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>976.775000</v>
+        <v>976.77499999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.627200</v>
+        <v>-75.627200000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>83068.157975</v>
+        <v>83068.157974999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.074488</v>
+        <v>23.074487999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>984.026000</v>
+        <v>984.02599999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.928800</v>
+        <v>-79.928799999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>83079.317928</v>
+        <v>83079.317928000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>23.077588</v>
+        <v>23.077587999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>992.153000</v>
+        <v>992.15300000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.207800</v>
+        <v>-91.207800000000006</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>83090.468525</v>
+        <v>83090.468525000004</v>
       </c>
       <c r="AU16" s="1">
         <v>23.080686</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.566000</v>
+        <v>-108.566</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>83101.532747</v>
+        <v>83101.532747000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.083759</v>
+        <v>23.083759000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1010.270000</v>
+        <v>1010.27</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.034000</v>
+        <v>-124.03400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>83112.547404</v>
+        <v>83112.547403999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>23.086819</v>
+        <v>23.086818999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.275000</v>
+        <v>-195.27500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>83123.832877</v>
+        <v>83123.832876999993</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.089954</v>
+        <v>23.089953999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1116.000000</v>
+        <v>1116</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.411000</v>
+        <v>-310.411</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>83134.648639</v>
+        <v>83134.648639000006</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.092958</v>
+        <v>23.092957999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1224.670000</v>
+        <v>1224.67</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-490.657000</v>
+        <v>-490.65699999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>83145.640482</v>
+        <v>83145.640482000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.096011</v>
+        <v>23.096011000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1346.540000</v>
+        <v>1346.54</v>
       </c>
       <c r="BV16" s="1">
-        <v>-687.240000</v>
+        <v>-687.24</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>83156.449795</v>
+        <v>83156.449794999993</v>
       </c>
       <c r="BY16" s="1">
         <v>23.099014</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1481.290000</v>
+        <v>1481.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-895.982000</v>
+        <v>-895.98199999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>83168.759506</v>
+        <v>83168.759506000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.102433</v>
+        <v>23.102433000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.790000</v>
+        <v>1830.79</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1390.040000</v>
+        <v>-1390.04</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>82994.877015</v>
+        <v>82994.877015000005</v>
       </c>
       <c r="B17" s="1">
         <v>23.054133</v>
       </c>
       <c r="C17" s="1">
-        <v>908.266000</v>
+        <v>908.26599999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.961000</v>
+        <v>-202.96100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>83005.340618</v>
+        <v>83005.340618000002</v>
       </c>
       <c r="G17" s="1">
         <v>23.057039</v>
       </c>
       <c r="H17" s="1">
-        <v>926.830000</v>
+        <v>926.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.665000</v>
+        <v>-171.66499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>83015.514062</v>
+        <v>83015.514062000002</v>
       </c>
       <c r="L17" s="1">
-        <v>23.059865</v>
+        <v>23.059864999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>950.469000</v>
+        <v>950.46900000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-122.225000</v>
+        <v>-122.22499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>83026.068958</v>
+        <v>83026.068958000003</v>
       </c>
       <c r="Q17" s="1">
         <v>23.062797</v>
       </c>
       <c r="R17" s="1">
-        <v>957.486000</v>
+        <v>957.48599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.714000</v>
+        <v>-105.714</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>83036.559325</v>
+        <v>83036.559324999995</v>
       </c>
       <c r="V17" s="1">
         <v>23.065711</v>
       </c>
       <c r="W17" s="1">
-        <v>964.420000</v>
+        <v>964.42</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.352900</v>
+        <v>-90.352900000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>83047.099298</v>
+        <v>83047.099298000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.068639</v>
+        <v>23.068639000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>971.868000</v>
+        <v>971.86800000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-78.221600</v>
+        <v>-78.221599999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>83058.273668</v>
+        <v>83058.273667999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.071743</v>
+        <v>23.071743000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>976.768000</v>
+        <v>976.76800000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.664400</v>
+        <v>-75.664400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>83068.820103</v>
+        <v>83068.820103000005</v>
       </c>
       <c r="AK17" s="1">
         <v>23.074672</v>
       </c>
       <c r="AL17" s="1">
-        <v>984.035000</v>
+        <v>984.03499999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.951100</v>
+        <v>-79.951099999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>83079.742726</v>
+        <v>83079.742725999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.077706</v>
+        <v>23.077705999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>992.139000</v>
+        <v>992.13900000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.194600</v>
+        <v>-91.194599999999994</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>83090.822138</v>
+        <v>83090.822138000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.080784</v>
+        <v>23.080784000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.545000</v>
+        <v>-108.545</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>83101.918138</v>
+        <v>83101.918137999994</v>
       </c>
       <c r="AZ17" s="1">
         <v>23.083866</v>
       </c>
       <c r="BA17" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.027000</v>
+        <v>-124.027</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>83112.909981</v>
+        <v>83112.909981000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.086919</v>
+        <v>23.086919000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>83124.207852</v>
+        <v>83124.207852000007</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.090058</v>
+        <v>23.090057999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1115.970000</v>
+        <v>1115.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.426000</v>
+        <v>-310.42599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>83135.079166</v>
+        <v>83135.079165999996</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.093078</v>
+        <v>23.093077999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-490.647000</v>
+        <v>-490.64699999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>83146.050176</v>
+        <v>83146.050176000004</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.096125</v>
+        <v>23.096125000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1346.550000</v>
+        <v>1346.55</v>
       </c>
       <c r="BV17" s="1">
-        <v>-687.274000</v>
+        <v>-687.274</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>83156.873377</v>
+        <v>83156.873376999996</v>
       </c>
       <c r="BY17" s="1">
         <v>23.099131</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1481.170000</v>
+        <v>1481.17</v>
       </c>
       <c r="CA17" s="1">
-        <v>-895.846000</v>
+        <v>-895.846</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>83169.298161</v>
+        <v>83169.298160999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.102583</v>
+        <v>23.102582999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1832.610000</v>
+        <v>1832.61</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1389.680000</v>
+        <v>-1389.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>82995.560040</v>
+        <v>82995.560039999997</v>
       </c>
       <c r="B18" s="1">
-        <v>23.054322</v>
+        <v>23.054321999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>908.380000</v>
+        <v>908.38</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.901000</v>
+        <v>-202.90100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>83005.686825</v>
+        <v>83005.686824999997</v>
       </c>
       <c r="G18" s="1">
-        <v>23.057135</v>
+        <v>23.057134999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>926.053000</v>
+        <v>926.053</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.868000</v>
+        <v>-171.86799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>83015.862252</v>
+        <v>83015.862252000006</v>
       </c>
       <c r="L18" s="1">
-        <v>23.059962</v>
+        <v>23.059961999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>950.433000</v>
+        <v>950.43299999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-122.195000</v>
+        <v>-122.19499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>83026.417151</v>
+        <v>83026.417151000001</v>
       </c>
       <c r="Q18" s="1">
         <v>23.062894</v>
       </c>
       <c r="R18" s="1">
-        <v>957.476000</v>
+        <v>957.476</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.687000</v>
+        <v>-105.687</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>83036.906517</v>
+        <v>83036.906516999996</v>
       </c>
       <c r="V18" s="1">
         <v>23.065807</v>
       </c>
       <c r="W18" s="1">
-        <v>964.330000</v>
+        <v>964.33</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.348000</v>
+        <v>-90.347999999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>83047.763939</v>
+        <v>83047.763938999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>23.068823</v>
+        <v>23.068822999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>971.864000</v>
+        <v>971.86400000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-78.183400</v>
+        <v>-78.183400000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>83058.646163</v>
+        <v>83058.646162999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.071846</v>
+        <v>23.071846000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>976.724000</v>
+        <v>976.72400000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.683000</v>
+        <v>-75.683000000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>83069.202518</v>
+        <v>83069.202518000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.074778</v>
+        <v>23.074777999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>984.032000</v>
+        <v>984.03200000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.966700</v>
+        <v>-79.966700000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>83080.132391</v>
+        <v>83080.132391000006</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.077815</v>
+        <v>23.077815000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>992.128000</v>
+        <v>992.12800000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.191600</v>
+        <v>-91.191599999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>83091.173800</v>
+        <v>83091.173800000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.080882</v>
+        <v>23.080881999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.548000</v>
+        <v>-108.548</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>83102.279722</v>
+        <v>83102.279722000007</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.083967</v>
+        <v>23.083967000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.040000</v>
+        <v>-124.04</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>83113.335581</v>
+        <v>83113.335581000007</v>
       </c>
       <c r="BE18" s="1">
         <v>23.087038</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.259000</v>
+        <v>-195.25899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>83124.637886</v>
+        <v>83124.637885999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.090177</v>
+        <v>23.090177000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1116.010000</v>
+        <v>1116.01</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.449000</v>
+        <v>-310.44900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>83135.463599</v>
+        <v>83135.463598999995</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.093184</v>
+        <v>23.093184000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1224.620000</v>
+        <v>1224.6199999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-490.651000</v>
+        <v>-490.65100000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>83146.466320</v>
+        <v>83146.466320000007</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.096241</v>
+        <v>23.096240999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1346.500000</v>
+        <v>1346.5</v>
       </c>
       <c r="BV18" s="1">
-        <v>-687.292000</v>
+        <v>-687.29200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>83157.287537</v>
+        <v>83157.287536999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.099247</v>
+        <v>23.099246999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1481.260000</v>
+        <v>1481.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-895.818000</v>
+        <v>-895.81799999999998</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>83169.838838</v>
+        <v>83169.838837999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.102733</v>
+        <v>23.102733000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.910000</v>
+        <v>1830.91</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1389.190000</v>
+        <v>-1389.19</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>82995.902742</v>
+        <v>82995.902742000006</v>
       </c>
       <c r="B19" s="1">
-        <v>23.054417</v>
+        <v>23.054417000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>908.411000</v>
+        <v>908.41099999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.821000</v>
+        <v>-202.821</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>83006.031578</v>
+        <v>83006.031577999995</v>
       </c>
       <c r="G19" s="1">
-        <v>23.057231</v>
+        <v>23.057231000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>926.512000</v>
+        <v>926.51199999999994</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.150000</v>
+        <v>-172.15</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>83016.206477</v>
@@ -4880,28 +5296,28 @@
         <v>23.060057</v>
       </c>
       <c r="M19" s="1">
-        <v>950.396000</v>
+        <v>950.39599999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-122.243000</v>
+        <v>-122.24299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>83027.082254</v>
+        <v>83027.082253999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.063078</v>
+        <v>23.063078000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>957.535000</v>
+        <v>957.53499999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.686000</v>
+        <v>-105.68600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>83037.517087</v>
@@ -4910,1994 +5326,1995 @@
         <v>23.065977</v>
       </c>
       <c r="W19" s="1">
-        <v>964.347000</v>
+        <v>964.34699999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.403100</v>
+        <v>-90.403099999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>83048.142385</v>
+        <v>83048.142384999999</v>
       </c>
       <c r="AA19" s="1">
         <v>23.068928</v>
       </c>
       <c r="AB19" s="1">
-        <v>971.833000</v>
+        <v>971.83299999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-78.193600</v>
+        <v>-78.193600000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>83058.988899</v>
+        <v>83058.988899000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.071941</v>
+        <v>23.071940999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>976.755000</v>
+        <v>976.755</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.706700</v>
+        <v>-75.706699999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>83069.550709</v>
+        <v>83069.550709000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.074875</v>
+        <v>23.074874999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>984.055000</v>
+        <v>984.05499999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.961700</v>
+        <v>-79.961699999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>83080.491464</v>
+        <v>83080.491464000006</v>
       </c>
       <c r="AP19" s="1">
         <v>23.077914</v>
       </c>
       <c r="AQ19" s="1">
-        <v>992.153000</v>
+        <v>992.15300000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.198700</v>
+        <v>-91.198700000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>83091.601352</v>
+        <v>83091.601351999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.081000</v>
+        <v>23.081</v>
       </c>
       <c r="AV19" s="1">
-        <v>1002.000000</v>
+        <v>1002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.563000</v>
+        <v>-108.563</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>83102.699337</v>
+        <v>83102.699336999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>23.084083</v>
       </c>
       <c r="BA19" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.036000</v>
+        <v>-124.036</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>83113.630171</v>
+        <v>83113.630170999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.087119</v>
+        <v>23.087119000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.256000</v>
+        <v>-195.256</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>83124.986076</v>
+        <v>83124.986076000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.090274</v>
+        <v>23.090274000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.421000</v>
+        <v>-310.42099999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>83135.886685</v>
+        <v>83135.886685000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.093302</v>
+        <v>23.093302000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1224.690000</v>
+        <v>1224.69</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-490.679000</v>
+        <v>-490.67899999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>83146.879983</v>
+        <v>83146.879983000006</v>
       </c>
       <c r="BT19" s="1">
         <v>23.096356</v>
       </c>
       <c r="BU19" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="BV19" s="1">
-        <v>-687.325000</v>
+        <v>-687.32500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>83157.741872</v>
+        <v>83157.741871999999</v>
       </c>
       <c r="BY19" s="1">
         <v>23.099373</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1481.240000</v>
+        <v>1481.24</v>
       </c>
       <c r="CA19" s="1">
-        <v>-895.945000</v>
+        <v>-895.94500000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>83170.378448</v>
+        <v>83170.378448000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.102883</v>
+        <v>23.102882999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1831.970000</v>
+        <v>1831.97</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1390.400000</v>
+        <v>-1390.4</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>82996.241015</v>
+        <v>82996.241015000007</v>
       </c>
       <c r="B20" s="1">
-        <v>23.054511</v>
+        <v>23.054511000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>908.590000</v>
+        <v>908.59</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.992000</v>
+        <v>-202.99199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>83006.688248</v>
+        <v>83006.688248000006</v>
       </c>
       <c r="G20" s="1">
         <v>23.057413</v>
       </c>
       <c r="H20" s="1">
-        <v>926.301000</v>
+        <v>926.30100000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-172.246000</v>
+        <v>-172.24600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>83016.868139</v>
+        <v>83016.868138999998</v>
       </c>
       <c r="L20" s="1">
-        <v>23.060241</v>
+        <v>23.060241000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>950.481000</v>
+        <v>950.48099999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.333000</v>
+        <v>-122.333</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>83027.464710</v>
+        <v>83027.46471</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.063185</v>
+        <v>23.063185000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>957.519000</v>
+        <v>957.51900000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.707000</v>
+        <v>-105.70699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>83037.936704</v>
+        <v>83037.936704000007</v>
       </c>
       <c r="V20" s="1">
         <v>23.066094</v>
       </c>
       <c r="W20" s="1">
-        <v>964.375000</v>
+        <v>964.375</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.322600</v>
+        <v>-90.322599999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>83048.489089</v>
+        <v>83048.489088999995</v>
       </c>
       <c r="AA20" s="1">
         <v>23.069025</v>
       </c>
       <c r="AB20" s="1">
-        <v>971.897000</v>
+        <v>971.89700000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-78.166900</v>
+        <v>-78.166899999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>83059.334116</v>
+        <v>83059.334115999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.072037</v>
+        <v>23.072037000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>976.742000</v>
+        <v>976.74199999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.696800</v>
+        <v>-75.696799999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>83069.899435</v>
+        <v>83069.899434999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.074972</v>
+        <v>23.074971999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>984.040000</v>
+        <v>984.04</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.936800</v>
+        <v>-79.936800000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>83080.908598</v>
+        <v>83080.908597999995</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.078030</v>
+        <v>23.078029999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>992.136000</v>
+        <v>992.13599999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.202400</v>
+        <v>-91.202399999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>83091.901927</v>
+        <v>83091.901926999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.081084</v>
+        <v>23.081084000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.575000</v>
+        <v>-108.575</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>83102.993465</v>
+        <v>83102.993465000007</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.084165</v>
+        <v>23.084164999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1010.240000</v>
+        <v>1010.24</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>83113.991258</v>
+        <v>83113.991257999995</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.087220</v>
+        <v>23.087219999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.250000</v>
+        <v>-195.25</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>83125.360091</v>
+        <v>83125.360090999995</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.090378</v>
+        <v>23.090378000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1116.000000</v>
+        <v>1116</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.450000</v>
+        <v>-310.45</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>83136.281965</v>
+        <v>83136.281965000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.093412</v>
+        <v>23.093412000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-490.661000</v>
+        <v>-490.661</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>83147.319934</v>
+        <v>83147.319933999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.096478</v>
+        <v>23.096478000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="BV20" s="1">
-        <v>-687.337000</v>
+        <v>-687.33699999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>83158.191744</v>
+        <v>83158.191743999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.099498</v>
+        <v>23.099498000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1481.280000</v>
+        <v>1481.28</v>
       </c>
       <c r="CA20" s="1">
-        <v>-895.847000</v>
+        <v>-895.84699999999998</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>83170.917901</v>
+        <v>83170.917900999993</v>
       </c>
       <c r="CD20" s="1">
         <v>23.103033</v>
       </c>
       <c r="CE20" s="1">
-        <v>1831.590000</v>
+        <v>1831.59</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1388.980000</v>
+        <v>-1388.98</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>82996.906149</v>
+        <v>82996.906149000002</v>
       </c>
       <c r="B21" s="1">
         <v>23.054696</v>
       </c>
       <c r="C21" s="1">
-        <v>908.471000</v>
+        <v>908.471</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.879000</v>
+        <v>-202.87899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>83007.062727</v>
+        <v>83007.062726999997</v>
       </c>
       <c r="G21" s="1">
-        <v>23.057517</v>
+        <v>23.057517000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>926.628000</v>
+        <v>926.62800000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-172.033000</v>
+        <v>-172.03299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>83017.245134</v>
+        <v>83017.245133999997</v>
       </c>
       <c r="L21" s="1">
-        <v>23.060346</v>
+        <v>23.060345999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>950.587000</v>
+        <v>950.58699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-122.286000</v>
+        <v>-122.286</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>83027.811870</v>
+        <v>83027.811870000005</v>
       </c>
       <c r="Q21" s="1">
         <v>23.063281</v>
       </c>
       <c r="R21" s="1">
-        <v>957.537000</v>
+        <v>957.53700000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.743000</v>
+        <v>-105.74299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>83038.280959</v>
+        <v>83038.280958999996</v>
       </c>
       <c r="V21" s="1">
-        <v>23.066189</v>
+        <v>23.066189000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>964.422000</v>
+        <v>964.42200000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.284400</v>
+        <v>-90.284400000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>83048.837777</v>
+        <v>83048.837776999993</v>
       </c>
       <c r="AA21" s="1">
         <v>23.069122</v>
       </c>
       <c r="AB21" s="1">
-        <v>971.802000</v>
+        <v>971.80200000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-78.164500</v>
+        <v>-78.164500000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>83059.768642</v>
+        <v>83059.768641999995</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.072158</v>
+        <v>23.072158000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>976.729000</v>
+        <v>976.72900000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.665700</v>
+        <v>-75.665700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>83070.323476</v>
+        <v>83070.323476000005</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.075090</v>
+        <v>23.075089999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>984.019000</v>
+        <v>984.01900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.954400</v>
+        <v>-79.954400000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>83081.211653</v>
+        <v>83081.211653000006</v>
       </c>
       <c r="AP21" s="1">
-        <v>23.078114</v>
+        <v>23.078113999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>992.139000</v>
+        <v>992.13900000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.200100</v>
+        <v>-91.200100000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>83092.265991</v>
+        <v>83092.265990999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.081185</v>
+        <v>23.081185000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.980000</v>
+        <v>1001.98</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>83103.351080</v>
+        <v>83103.351079999993</v>
       </c>
       <c r="AZ21" s="1">
-        <v>23.084264</v>
+        <v>23.084264000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1010.260000</v>
+        <v>1010.26</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.032000</v>
+        <v>-124.032</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>83114.352346</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.087320</v>
+        <v>23.087319999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>83125.977578</v>
+        <v>83125.977578000005</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.090549</v>
+        <v>23.090548999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1115.980000</v>
+        <v>1115.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.440000</v>
+        <v>-310.44</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>83136.704291</v>
+        <v>83136.704291000002</v>
       </c>
       <c r="BO21" s="1">
         <v>23.093529</v>
       </c>
       <c r="BP21" s="1">
-        <v>1224.690000</v>
+        <v>1224.69</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-490.630000</v>
+        <v>-490.63</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>83147.749006</v>
+        <v>83147.749005999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.096597</v>
+        <v>23.096596999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="BV21" s="1">
-        <v>-687.331000</v>
+        <v>-687.33100000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>83158.615327</v>
+        <v>83158.615327000007</v>
       </c>
       <c r="BY21" s="1">
         <v>23.099615</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1481.300000</v>
+        <v>1481.3</v>
       </c>
       <c r="CA21" s="1">
-        <v>-895.850000</v>
+        <v>-895.85</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>83171.459263</v>
+        <v>83171.459262999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.103183</v>
+        <v>23.103183000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1830.850000</v>
+        <v>1830.85</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1390.250000</v>
+        <v>-1390.25</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>82997.269220</v>
+        <v>82997.269220000002</v>
       </c>
       <c r="B22" s="1">
-        <v>23.054797</v>
+        <v>23.054797000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>908.462000</v>
+        <v>908.46199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.892000</v>
+        <v>-202.892</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>83007.408472</v>
+        <v>83007.408471999996</v>
       </c>
       <c r="G22" s="1">
         <v>23.057613</v>
       </c>
       <c r="H22" s="1">
-        <v>926.649000</v>
+        <v>926.649</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.832000</v>
+        <v>-171.83199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>83017.587338</v>
+        <v>83017.587337999998</v>
       </c>
       <c r="L22" s="1">
-        <v>23.060441</v>
+        <v>23.060441000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>950.497000</v>
+        <v>950.49699999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.364000</v>
+        <v>-122.364</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>83028.161548</v>
+        <v>83028.161548000004</v>
       </c>
       <c r="Q22" s="1">
         <v>23.063378</v>
       </c>
       <c r="R22" s="1">
-        <v>957.510000</v>
+        <v>957.51</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.698000</v>
+        <v>-105.69799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>83038.705502</v>
+        <v>83038.705501999997</v>
       </c>
       <c r="V22" s="1">
-        <v>23.066307</v>
+        <v>23.066306999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>964.346000</v>
+        <v>964.346</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.243700</v>
+        <v>-90.243700000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>83049.274753</v>
+        <v>83049.274753000005</v>
       </c>
       <c r="AA22" s="1">
         <v>23.069243</v>
       </c>
       <c r="AB22" s="1">
-        <v>971.849000</v>
+        <v>971.84900000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-78.129800</v>
+        <v>-78.129800000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>83060.050375</v>
+        <v>83060.050375000006</v>
       </c>
       <c r="AF22" s="1">
         <v>23.072236</v>
       </c>
       <c r="AG22" s="1">
-        <v>976.702000</v>
+        <v>976.702</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.651100</v>
+        <v>-75.6511</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>83070.611187</v>
+        <v>83070.611187000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.075170</v>
+        <v>23.07517</v>
       </c>
       <c r="AL22" s="1">
-        <v>984.024000</v>
+        <v>984.024</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.946100</v>
+        <v>-79.946100000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>83081.573237</v>
+        <v>83081.573237000004</v>
       </c>
       <c r="AP22" s="1">
         <v>23.078215</v>
       </c>
       <c r="AQ22" s="1">
-        <v>992.121000</v>
+        <v>992.12099999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.186600</v>
+        <v>-91.186599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>83092.630552</v>
+        <v>83092.630552000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.081286</v>
+        <v>23.081285999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.562000</v>
+        <v>-108.562</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>83103.711176</v>
+        <v>83103.711175999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.084364</v>
+        <v>23.084364000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1010.260000</v>
+        <v>1010.26</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.038000</v>
+        <v>-124.038</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>83115.075025</v>
+        <v>83115.075024999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.087521</v>
+        <v>23.087520999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.236000</v>
+        <v>-195.23599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>83126.132826</v>
+        <v>83126.132826000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.090592</v>
+        <v>23.090592000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.419000</v>
+        <v>-310.41899999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>83137.101851</v>
+        <v>83137.101850999999</v>
       </c>
       <c r="BO22" s="1">
         <v>23.093639</v>
       </c>
       <c r="BP22" s="1">
-        <v>1224.620000</v>
+        <v>1224.6199999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-490.627000</v>
+        <v>-490.62700000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>83148.160190</v>
+        <v>83148.160189999995</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.096711</v>
+        <v>23.096710999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1346.480000</v>
+        <v>1346.48</v>
       </c>
       <c r="BV22" s="1">
-        <v>-687.343000</v>
+        <v>-687.34299999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>83159.034943</v>
+        <v>83159.034943000006</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.099732</v>
+        <v>23.099731999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1481.330000</v>
+        <v>1481.33</v>
       </c>
       <c r="CA22" s="1">
-        <v>-895.831000</v>
+        <v>-895.83100000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>83172.308879</v>
+        <v>83172.308879000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>23.103419</v>
+        <v>23.103418999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.410000</v>
+        <v>1831.41</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1388.770000</v>
+        <v>-1388.77</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>82997.612948</v>
+        <v>82997.612947999995</v>
       </c>
       <c r="B23" s="1">
-        <v>23.054892</v>
+        <v>23.054891999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>908.447000</v>
+        <v>908.447</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.949000</v>
+        <v>-202.94900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>83007.754685</v>
+        <v>83007.754685000007</v>
       </c>
       <c r="G23" s="1">
-        <v>23.057710</v>
+        <v>23.05771</v>
       </c>
       <c r="H23" s="1">
-        <v>926.528000</v>
+        <v>926.52800000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.969000</v>
+        <v>-171.96899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>83017.940489</v>
+        <v>83017.940489000001</v>
       </c>
       <c r="L23" s="1">
-        <v>23.060539</v>
+        <v>23.060538999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>950.389000</v>
+        <v>950.38900000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-122.266000</v>
+        <v>-122.26600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>83028.578715</v>
+        <v>83028.578714999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.063494</v>
+        <v>23.063493999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>957.506000</v>
+        <v>957.50599999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.704000</v>
+        <v>-105.70399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>83038.981277</v>
+        <v>83038.981276999999</v>
       </c>
       <c r="V23" s="1">
-        <v>23.066384</v>
+        <v>23.066383999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>964.479000</v>
+        <v>964.47900000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.297100</v>
+        <v>-90.2971</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>83049.538623</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.069316</v>
+        <v>23.069316000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>971.821000</v>
+        <v>971.82100000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-78.191800</v>
+        <v>-78.191800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>83060.393569</v>
+        <v>83060.393569000007</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.072332</v>
+        <v>23.072331999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>976.755000</v>
+        <v>976.755</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.652200</v>
+        <v>-75.652199999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>83070.958853</v>
+        <v>83070.958853000004</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.075266</v>
+        <v>23.075265999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>984.026000</v>
+        <v>984.02599999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.947500</v>
+        <v>-79.947500000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>83081.933334</v>
+        <v>83081.933334000001</v>
       </c>
       <c r="AP23" s="1">
         <v>23.078315</v>
       </c>
       <c r="AQ23" s="1">
-        <v>992.129000</v>
+        <v>992.12900000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.194900</v>
+        <v>-91.194900000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>83093.361653</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.081489</v>
+        <v>23.081489000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.576000</v>
+        <v>-108.57599999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>83104.432360</v>
+        <v>83104.432360000006</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.084565</v>
+        <v>23.084565000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1010.230000</v>
+        <v>1010.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.061000</v>
+        <v>-124.06100000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>83115.462889</v>
+        <v>83115.462889000002</v>
       </c>
       <c r="BE23" s="1">
         <v>23.087629</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.261000</v>
+        <v>-195.261</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>83126.507306</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.090696</v>
+        <v>23.090696000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1115.970000</v>
+        <v>1115.97</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.395000</v>
+        <v>-310.39499999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>83137.521963</v>
+        <v>83137.521963000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.093756</v>
+        <v>23.093755999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1224.620000</v>
+        <v>1224.6199999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-490.637000</v>
+        <v>-490.637</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>83148.903179</v>
+        <v>83148.903179000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.096918</v>
+        <v>23.096917999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="BV23" s="1">
-        <v>-687.359000</v>
+        <v>-687.35900000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>83159.766541</v>
+        <v>83159.766541000005</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.099935</v>
+        <v>23.099934999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1481.230000</v>
+        <v>1481.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-895.839000</v>
+        <v>-895.83900000000006</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>83172.536045</v>
+        <v>83172.536045000001</v>
       </c>
       <c r="CD23" s="1">
         <v>23.103482</v>
       </c>
       <c r="CE23" s="1">
-        <v>1831.420000</v>
+        <v>1831.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1388.960000</v>
+        <v>-1388.96</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>82997.954692</v>
+        <v>82997.954691999999</v>
       </c>
       <c r="B24" s="1">
-        <v>23.054987</v>
+        <v>23.054987000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>908.414000</v>
+        <v>908.41399999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.962000</v>
+        <v>-202.96199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>83008.178230</v>
+        <v>83008.178230000005</v>
       </c>
       <c r="G24" s="1">
         <v>23.057827</v>
       </c>
       <c r="H24" s="1">
-        <v>926.397000</v>
+        <v>926.39700000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.831000</v>
+        <v>-171.83099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>83018.374985</v>
+        <v>83018.374985000002</v>
       </c>
       <c r="L24" s="1">
-        <v>23.060660</v>
+        <v>23.060659999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>950.453000</v>
+        <v>950.45299999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-122.336000</v>
+        <v>-122.336</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>83028.868347</v>
+        <v>83028.868346999996</v>
       </c>
       <c r="Q24" s="1">
         <v>23.063575</v>
       </c>
       <c r="R24" s="1">
-        <v>957.498000</v>
+        <v>957.49800000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.657000</v>
+        <v>-105.657</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>83039.325005</v>
+        <v>83039.325005000006</v>
       </c>
       <c r="V24" s="1">
-        <v>23.066479</v>
+        <v>23.066479000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>964.300000</v>
+        <v>964.3</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.275500</v>
+        <v>-90.275499999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>83049.894255</v>
+        <v>83049.894255000007</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.069415</v>
+        <v>23.069414999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>971.894000</v>
+        <v>971.89400000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-78.203400</v>
+        <v>-78.203400000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>83060.736800</v>
+        <v>83060.736799999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.072427</v>
+        <v>23.072427000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>976.731000</v>
+        <v>976.73099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.676300</v>
+        <v>-75.676299999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>83071.305557</v>
       </c>
       <c r="AK24" s="1">
-        <v>23.075363</v>
+        <v>23.075362999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>984.056000</v>
+        <v>984.05600000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.948100</v>
+        <v>-79.948099999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>83082.653060</v>
+        <v>83082.653059999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.078515</v>
+        <v>23.078514999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>992.134000</v>
+        <v>992.13400000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.209500</v>
+        <v>-91.209500000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>83093.752007</v>
+        <v>83093.752007000003</v>
       </c>
       <c r="AU24" s="1">
         <v>23.081598</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.990000</v>
+        <v>1001.99</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.553000</v>
+        <v>-108.553</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>83104.811335</v>
+        <v>83104.811335000006</v>
       </c>
       <c r="AZ24" s="1">
-        <v>23.084670</v>
+        <v>23.084669999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1010.260000</v>
+        <v>1010.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>83115.826952</v>
+        <v>83115.826952000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.087730</v>
+        <v>23.087730000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.980000</v>
+        <v>1048.98</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.269000</v>
+        <v>-195.26900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>83127.196250</v>
+        <v>83127.196249999994</v>
       </c>
       <c r="BJ24" s="1">
         <v>23.090888</v>
       </c>
       <c r="BK24" s="1">
-        <v>1115.980000</v>
+        <v>1115.98</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.442000</v>
+        <v>-310.44200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>83138.227771</v>
+        <v>83138.227771000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.093952</v>
+        <v>23.093952000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1224.580000</v>
+        <v>1224.58</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-490.620000</v>
+        <v>-490.62</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>83149.013309</v>
+        <v>83149.013309000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.096948</v>
+        <v>23.096948000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="BV24" s="1">
-        <v>-687.389000</v>
+        <v>-687.38900000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>83159.877151</v>
+        <v>83159.877150999993</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.099966</v>
+        <v>23.099965999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1481.300000</v>
+        <v>1481.3</v>
       </c>
       <c r="CA24" s="1">
-        <v>-895.871000</v>
+        <v>-895.87099999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>83173.053868</v>
+        <v>83173.053868000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.103626</v>
+        <v>23.103625999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1830.930000</v>
+        <v>1830.93</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1389.900000</v>
+        <v>-1389.9</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>82998.388196</v>
       </c>
       <c r="B25" s="1">
-        <v>23.055108</v>
+        <v>23.055108000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>908.579000</v>
+        <v>908.57899999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.897000</v>
+        <v>-202.89699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>83008.450534</v>
+        <v>83008.450534000003</v>
       </c>
       <c r="G25" s="1">
         <v>23.057903</v>
       </c>
       <c r="H25" s="1">
-        <v>926.911000</v>
+        <v>926.91099999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.977000</v>
+        <v>-171.977</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>83018.642328</v>
+        <v>83018.642328000002</v>
       </c>
       <c r="L25" s="1">
         <v>23.060734</v>
       </c>
       <c r="M25" s="1">
-        <v>950.337000</v>
+        <v>950.33699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.230000</v>
+        <v>-122.23</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>83029.219516</v>
+        <v>83029.219515999997</v>
       </c>
       <c r="Q25" s="1">
         <v>23.063672</v>
       </c>
       <c r="R25" s="1">
-        <v>957.514000</v>
+        <v>957.51400000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.619000</v>
+        <v>-105.619</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>83039.667742</v>
+        <v>83039.667742000005</v>
       </c>
       <c r="V25" s="1">
-        <v>23.066574</v>
+        <v>23.066573999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>964.368000</v>
+        <v>964.36800000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.232200</v>
+        <v>-90.232200000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>83050.246416</v>
+        <v>83050.246415999994</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.069513</v>
+        <v>23.069513000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>971.844000</v>
+        <v>971.84400000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-78.210600</v>
+        <v>-78.210599999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>83061.421777</v>
+        <v>83061.421776999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.072617</v>
+        <v>23.072617000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>976.732000</v>
+        <v>976.73199999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.670300</v>
+        <v>-75.670299999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>83072.002465</v>
+        <v>83072.002464999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.075556</v>
+        <v>23.075555999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>984.041000</v>
+        <v>984.04100000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.945000</v>
+        <v>-79.944999999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>83083.040435</v>
+        <v>83083.040435000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.078622</v>
+        <v>23.078621999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>992.133000</v>
+        <v>992.13300000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.191100</v>
+        <v>-91.191100000000006</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>83094.116068</v>
+        <v>83094.116068000003</v>
       </c>
       <c r="AU25" s="1">
         <v>23.081699</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.960000</v>
+        <v>1001.96</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>83105.190398</v>
+        <v>83105.190398000006</v>
       </c>
       <c r="AZ25" s="1">
         <v>23.084775</v>
       </c>
       <c r="BA25" s="1">
-        <v>1010.270000</v>
+        <v>1010.27</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.044000</v>
+        <v>-124.044</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>83116.503496</v>
+        <v>83116.503496000005</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.087918</v>
+        <v>23.087917999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.970000</v>
+        <v>1048.97</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.274000</v>
+        <v>-195.274</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>83127.663976</v>
+        <v>83127.663975999996</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.091018</v>
+        <v>23.091017999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.436000</v>
+        <v>-310.43599999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>83138.356266</v>
+        <v>83138.356266000003</v>
       </c>
       <c r="BO25" s="1">
         <v>23.093988</v>
       </c>
       <c r="BP25" s="1">
-        <v>1224.690000</v>
+        <v>1224.69</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-490.656000</v>
+        <v>-490.65600000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>83149.454221</v>
+        <v>83149.454221000007</v>
       </c>
       <c r="BT25" s="1">
         <v>23.097071</v>
       </c>
       <c r="BU25" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="BV25" s="1">
-        <v>-687.444000</v>
+        <v>-687.44399999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>83160.315117</v>
+        <v>83160.315117000006</v>
       </c>
       <c r="BY25" s="1">
         <v>23.100088</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1481.200000</v>
+        <v>1481.2</v>
       </c>
       <c r="CA25" s="1">
-        <v>-895.962000</v>
+        <v>-895.96199999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>83173.574204</v>
+        <v>83173.574204000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.103771</v>
+        <v>23.103770999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.840000</v>
+        <v>1830.84</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1389.670000</v>
+        <v>-1389.67</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>82998.653586</v>
       </c>
       <c r="B26" s="1">
-        <v>23.055182</v>
+        <v>23.055181999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>908.495000</v>
+        <v>908.495</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.946000</v>
+        <v>-202.946</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>83008.794300</v>
+        <v>83008.794299999994</v>
       </c>
       <c r="G26" s="1">
-        <v>23.057998</v>
+        <v>23.057998000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>926.707000</v>
+        <v>926.70699999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-172.254000</v>
+        <v>-172.25399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>83018.987092</v>
+        <v>83018.987091999996</v>
       </c>
       <c r="L26" s="1">
-        <v>23.060830</v>
+        <v>23.060829999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>950.512000</v>
+        <v>950.51199999999994</v>
       </c>
       <c r="N26" s="1">
-        <v>-122.322000</v>
+        <v>-122.322</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>83029.569690</v>
+        <v>83029.569690000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.063769</v>
+        <v>23.063769000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>957.550000</v>
+        <v>957.55</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.705000</v>
+        <v>-105.705</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>83040.353212</v>
+        <v>83040.353212000002</v>
       </c>
       <c r="V26" s="1">
         <v>23.066765</v>
       </c>
       <c r="W26" s="1">
-        <v>964.470000</v>
+        <v>964.47</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.317800</v>
+        <v>-90.317800000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>83050.942832</v>
+        <v>83050.942832000001</v>
       </c>
       <c r="AA26" s="1">
         <v>23.069706</v>
       </c>
       <c r="AB26" s="1">
-        <v>971.864000</v>
+        <v>971.86400000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-78.197200</v>
+        <v>-78.197199999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>83061.768975</v>
+        <v>83061.768974999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.072714</v>
+        <v>23.072714000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>976.708000</v>
+        <v>976.70799999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.634100</v>
+        <v>-75.634100000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>83072.586226</v>
+        <v>83072.586225999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>23.075718</v>
+        <v>23.075717999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>984.016000</v>
+        <v>984.01599999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.966300</v>
+        <v>-79.966300000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>83083.419360</v>
+        <v>83083.41936</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.078728</v>
+        <v>23.078728000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>992.155000</v>
+        <v>992.15499999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.219300</v>
+        <v>-91.219300000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>83094.800548</v>
+        <v>83094.800547999999</v>
       </c>
       <c r="AU26" s="1">
         <v>23.081889</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.970000</v>
+        <v>1001.97</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.555000</v>
+        <v>-108.55500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>83105.866826</v>
+        <v>83105.866825999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.084963</v>
+        <v>23.084962999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1010.250000</v>
+        <v>1010.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.051000</v>
+        <v>-124.051</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>83116.912694</v>
+        <v>83116.912693999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.088031</v>
+        <v>23.088031000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.960000</v>
+        <v>1048.96</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.263000</v>
+        <v>-195.26300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>83128.039448</v>
+        <v>83128.039447999996</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.091122</v>
+        <v>23.091121999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1115.990000</v>
+        <v>1115.99</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.399000</v>
+        <v>-310.399</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>83138.764441</v>
+        <v>83138.764441000007</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.094101</v>
+        <v>23.094100999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1224.680000</v>
+        <v>1224.68</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-490.649000</v>
+        <v>-490.649</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>83149.868379</v>
+        <v>83149.868379000007</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.097186</v>
+        <v>23.097186000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1346.400000</v>
+        <v>1346.4</v>
       </c>
       <c r="BV26" s="1">
-        <v>-687.375000</v>
+        <v>-687.375</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>83160.923745</v>
+        <v>83160.923744999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.100257</v>
+        <v>23.100256999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1481.390000</v>
+        <v>1481.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-895.717000</v>
+        <v>-895.71699999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>83174.125761</v>
+        <v>83174.125761000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.103924</v>
+        <v>23.103923999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1831.330000</v>
+        <v>1831.33</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1388.880000</v>
+        <v>-1388.88</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>